--- a/Cohere eval/evaluation_eng_tel-cohere.xlsx
+++ b/Cohere eval/evaluation_eng_tel-cohere.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine translation model\Machine Translation Model\OUTPUT EVALUATION\Cohere eval\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136F6A6-4EF5-47AC-B543-A542EFA8A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -940,7 +946,7 @@
     <t>అమేజాన్ నది ప్రపంచంలో రెండై పెద్ద నది మరియు వెలుగు వెలుగుగా వెలుగులో రెండై పెద్ద నదిగా అందరికీ తెలిసింది. ఇది రెండై పెద్ద నదికి గతిచేస్తూ ఎన్ని సమయాల వాటిని తీసుకుంటుంది.</t>
   </si>
   <si>
-    <t>శింహాలు గుంపులు పాక్కులు కనిపించి పరికరిస్తాయనికి, వాడ్లు మరియు కుక్కలు, శింహాల తరవాత అసమాన్యంగా సమానమైన పరికరణాలతో ఉండటానికి, మరియు మాంసాహారికులకు అత్యంత వినాశకరం.</t>
+    <t>సింహాల గుంపులు పాటిస్తారు కుక్కల కూడలో అథవా కొక్కల కూడలో ఉండటం మాత్రమే కాదు, వాటి వ్యవహారం సింహాలతో సంతోషంగా సమానం (కింద పెద్ద పందులతో కాదు) మరియు వాటి బాధిత ప్రాణికి అత్యంత మరణాన్నికంగా ఉండటం.</t>
   </si>
   <si>
     <t>హెన్రీ లూయిస్ గేట్స్ పిబిఎస్ స్పెషల్ ఆఫ్రికన్ వరల్డ్ వండర్స్ ప్రాంతంలో అది ఒక ప్రముఖ నిలువులో ఉంది.</t>
@@ -1153,7 +1159,7 @@
     <t>స్కీయింగ్ ఇదేయా విషయం చాలా పୁరాతనం - స్కీయర్లను చిత్రిస్తూనే గుహల చిత్రాలు 5000 బిసీ వరకు పిలవడం!</t>
   </si>
   <si>
-    <t>ప్రత్యేకించి, అందరికీ అందరికి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందరి అందర�</t>
+    <t>ప్రత్యేకించి, అందుబాటులో వ్యక్తి దుష్టువ్వాడా లేదా సత్యం వినియోగిస్తానను సరిగ్గా అర్థం చేసి అందుబాటులను కనుగొనబడుతుంది అని అవగాహన చేస్తారు.</t>
   </si>
   <si>
     <t>అంతర్గత వ్యాధి నియంత్రణ పరీక్షను రేఞ్జర్ల ద్వారా నిరంతరంగా అదృష్టపరచుకుండా నిరీక్షించబడింది మరియు తన ప్రాముఖ్యత ముల్లపేకుండినది.</t>
@@ -1189,7 +1195,7 @@
     <t>యుద్ధాన్ని తీవ్రంగా అందించిన తర్వాత బ్రిటన్ జర్మనీ వద్ద నౌపనీతి బ్లాకేడ్ చేసింది.</t>
   </si>
   <si>
-    <t>విదేశాన్నికి జాతీయ పరివర్తన శస్త్రచికిక పొరసిన వయాజర్లు తిరిగివరకు సరిదారు పత్రాలు తలచెబటాలని అవసరం ఉంది.</t>
+    <t>విదేశాన్ని సంబంధించిన లింగ పునర్నిర్ణయ శస్త్రచికిక పై యోజన చేయునప్పుళ్ళిని వారు తిరిగి వెళ్లడానికి సరిపోయిన దాఖలు తీసుకోవాలి ఉంటుంది.</t>
   </si>
   <si>
     <t>గతింగిన నెలలు ఒక రాష్ట్రపతి సమితి మునుపటి సీఇపీ రాజీనామాను పాటు దేశాన్ని పుత్తన ఎలెక్షన్లకు దిగుమతి కావడానికి ఒక పాకేట్ పనికి సందేశించారు.</t>
@@ -1219,10 +1225,10 @@
     <t>ఫ్రాన్స్ దేశంలోని ఈస్ట్ భాగంలోని లియోన్ చేర్చిన నాగిలుకుండా మరియు సోమవారం కనిపించిన మృతి కాకికి H5N1 అనే మనిషికి వినాశకరమైన బర్డ్ ఫ్లూ సంక్రమణం కనిపించింది అనేది నిరూపించబడింది.</t>
   </si>
   <si>
-    <t>ఫాస్టర్ కేర్ అనేది అందింపులను అందిసింది గాని అది ముందు ఉన్న వాడి ఇంట్లో లేకుండా ఉన్న అవసరాలను పూర్తి చేయాలని ఉద్దేశించబడింది.</t>
-  </si>
-  <si>
-    <t>చెప్పబడిన కార్యం సిద్ధాంతాత్మకం అయినా, సిములేటర్ ప్రోగ్రాం రచింపబడింది సాగిటారియస్ గ్యాలక్సీ గురించి చూడిన విషయాలను సిములేట్ చేయడానికి.</t>
+    <t>ఫాస్టర్ కేర్ అన్ని అవసరాలను పూర్తి చేయాలని ఉంది వాటిని వాటి ముందుగా ఉన్న వీటిలో కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్ని కొన్</t>
+  </si>
+  <si>
+    <t>చెప్పబడిన పని సిద్ధాంతాత్మకంగా ఉంది, కాబట్టికి సిమ్యులేటర్ వలన సాగిటారియస్ గ్యాలక్సీ గురించి వివరాలను సిరిసింపాడిన ప్రోగ్రాంతను రచించారు.</t>
   </si>
   <si>
     <t>చరిత్ర విజ్ఞానికింది పొలిసీ విభాగం పూర్విక నియమాలను అన్యాయంగా అవలందనం చేసుకున్నారు సులభంగా పరిశీలించబడే ప్రకరణాల మీద విశేషంగా కళ్లుతొడిగిన కారుల ప్రకరణల మీద, సంస్థ సఫలంగా ఉండడం లక్ష్యంగా.</t>
@@ -1243,7 +1249,7 @@
     <t>ఈ క్రిస్టల్స్ గుణాంతరాలు ఎఫెక్టెడ్ పెట్స్ ఉరినుమింది ఇన్ఫ్రారెడ్ స్పెక్ట్రాస్కోపి (FTIR) ద్వారా సమానంగా ఉండటానికి మీరు సాధించారు.</t>
   </si>
   <si>
-    <t>మోసాసారుస్ సేతూరి కాలంలో ప్రధాన అవతిరోధి జంతువునితో అందరికీ భయం ఉంది, మోసాసారుస్ గాని మంది వినికి భయపడతాడు.</t>
+    <t>మోసాసారస్ ప్రాచీన కాలంలో అతిపెద్ద అంత్యాయినియామికి మాత్రమే భయం లేదు.</t>
   </si>
   <si>
     <t>మనం నమ్మదే ఇంట్లోని పైకి మరియు వస్త్రాలను పంతల నుండి తయారు చేస్తాం. మనం తినిన అన్నం పెరిగిన భాగం పంతల నుండి ఉంది. పంతల లేదా ప్రాణిలు జీవించకంగా లేదు.</t>
@@ -1315,7 +1321,7 @@
     <t>మరియు ప్రతి రాజవంశం మధ్య ప్రాంతాల విభజించిన అస్థిరమైన యుగం ఉంది. ఈ కాలాల ప్రసిద్ధమైనది హన్ మరియు జిన్ రాజవంశాల మధ్య ఎదురుచూసిన త్రి రాజ్యాల యుగం, అది సమయం పందుగా నిర్వహించింది.</t>
   </si>
   <si>
-    <t>ఈ ప్రభావంతో, రెండు మాంసపెండి జాతీయాలు అంత్యం అనుభవించినవి, మరియు రెండు మాంసపెండి జాతీయాలు అపాయకరంగా ఉండవి, దానికి సంబంధించిన గుండెములు ఉండవి.</t>
+    <t>ఈ పరిణామంగా, రెండు చేతి జాతీయ పశువులు అంత్యమవుతున్నాయి మరియు రెండు చేతి చేతులు అపాయకరమైనవిగా మారివుతున్నాయి, దానికి సంబంధించిన గుండెముక్క చేతి హంప్‌బ్యాక్ చూబ్ అని అనువదించబడింది.</t>
   </si>
   <si>
     <t>బ్లాగ్సులు విద్యార్థి రచనలను మెరుగుపరచేందుకుంటాయి. విద్యార్థిలు సాధారణంగా తమ బ్లాగ్ అనుభవాన్ని అసంబంధంగత వ్యాకరణాలతో మరియు అక్షరాల పైకి ప్రారంభించారు, కానీ పొద్దుల ఉపస్థితి సాధారణంగా అది మారిపోతుంది.</t>
@@ -1351,9 +1357,6 @@
     <t>మిస్టర్ ప్రధానమంత్రితో నడిన సభకుద్దకునిపి లేటన్ కంసర్వేటివ్ పార్టీ పర్యావరణ బిల్లు మీరు సంపూర్ణంగా మరియు సంపూర్ణంగా రాజింప అనే అపేక్ష చేసినారు.</t>
   </si>
   <si>
-    <t>దువాల్, రెండు పెరిగిన పిల్లలతో దాంపత్యం చేసినవారు, కథ చెప్పిన మిల్లర్కు అందరితో చాలా ప్రభావం చేయలేదు.</t>
-  </si>
-  <si>
     <t>ప్రాంతీయ మరియు వర్షాకాలీన కఠిన వాతావరణ ప్రయోగాలు పతింగలు, పందుబండులు, మంచిన పందులు మరియు గడ్డిపు పందులు అన్నింటా ఉంటాయి.</t>
   </si>
   <si>
@@ -1369,20 +1372,23 @@
     <t>మరిన్ని కుష్టి ఆటగారులు లూనాకు గౌరవాంజలి అర్పించారు.</t>
   </si>
   <si>
-    <t>పోలీస్ అనుసారం, ఫోటోగ్రాఫర్ని తగ్గిందిన వాహనాన్ని డ్రైవ్ చేసిన వ్యక్తికి క్రిమినల్ కేసు ఎదుర్కోవడిని అసాధ్యంగా ఉంది.</t>
+    <t>పోలీస్ వివరాల ప్రకారం, ఫోటోగ్రాఫర్ని తగ్గిన వాహనాన్ని డ్రైవ్ చేసిన వ్యక్తి క్రిమినల్ కేసుల ఎదురు అసమర్థను అనుభవించకూడదు.</t>
   </si>
   <si>
     <t>కోచమో వాలీ - దక్షిణ అమెరికాల యోసెమిట్, గ్రానైట్ మహాదేవాలయాలతో మరియు గుండాలతో చిలీని ముఖ్య ఆరోహణ గంటవ్యం.</t>
   </si>
   <si>
     <t>శార్క్స్ సత్తుంది కాబట్టి, మనిషికి అవి విరాళంగా విడిపు చేస్తాయి. పాటిగా శార్క్స్ మనిషిని భయపడుతాయి మరియు విలాపిస్తాయి.</t>
+  </si>
+  <si>
+    <t>దువల్ దంపతిరాలారు మరియు రెండు పెద్ద పిల్లలు ఉన్నారు. కాని, కథను చెప్పిన మిల్లర్ మీద అతనికి చాలా ప్రభావం చేసినది లేదు.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,13 +1451,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1489,7 +1503,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1523,6 +1537,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1557,9 +1572,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1732,14 +1748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1782,10 @@
         <v>304</v>
       </c>
       <c r="D2">
-        <v>0.03694962418908791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3.6949624189087912E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1778,10 +1796,10 @@
         <v>305</v>
       </c>
       <c r="D3">
-        <v>0.03848196746087264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.8481967460872638E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1792,10 +1810,10 @@
         <v>306</v>
       </c>
       <c r="D4">
-        <v>0.01776222681238415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.7762226812384149E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1806,10 +1824,10 @@
         <v>307</v>
       </c>
       <c r="D5">
-        <v>0.01473952508024752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.473952508024752E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1820,10 +1838,10 @@
         <v>308</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1.435802452844482E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1834,10 +1852,10 @@
         <v>309</v>
       </c>
       <c r="D7">
-        <v>0.04830888906063467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4.8308889060634672E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1848,10 +1866,10 @@
         <v>310</v>
       </c>
       <c r="D8">
-        <v>0.03060168860985107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.0601688609851071E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1862,10 +1880,10 @@
         <v>311</v>
       </c>
       <c r="D9">
-        <v>0.03883749267847868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.8837492678478677E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1876,10 +1894,10 @@
         <v>312</v>
       </c>
       <c r="D10">
-        <v>0.0246426604041437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.4642660404143701E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1890,10 +1908,10 @@
         <v>313</v>
       </c>
       <c r="D11">
-        <v>0.02233077788489958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.233077788489958E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1904,10 +1922,10 @@
         <v>314</v>
       </c>
       <c r="D12">
-        <v>0.02346383851293719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.346383851293719E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1918,10 +1936,10 @@
         <v>315</v>
       </c>
       <c r="D13">
-        <v>0.01379953820967858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1.379953820967858E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>0.1121333682239084</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1946,10 +1964,10 @@
         <v>317</v>
       </c>
       <c r="D15">
-        <v>0.01251837734451281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.251837734451281E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1960,10 +1978,10 @@
         <v>318</v>
       </c>
       <c r="D16">
-        <v>0.01785464005155096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1.7854640051550959E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1974,10 +1992,10 @@
         <v>319</v>
       </c>
       <c r="D17">
-        <v>0.01584820759127179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1.5848207591271792E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1988,10 +2006,10 @@
         <v>320</v>
       </c>
       <c r="D18">
-        <v>0.01758542189440898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1.7585421894408981E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2002,10 +2020,10 @@
         <v>321</v>
       </c>
       <c r="D19">
-        <v>0.04669116179644531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4.6691161796445307E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2016,10 +2034,10 @@
         <v>322</v>
       </c>
       <c r="D20">
-        <v>0.01258073029778358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1.2580730297783581E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2030,10 +2048,10 @@
         <v>323</v>
       </c>
       <c r="D21">
-        <v>0.01119961714552871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.1199617145528711E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2044,10 +2062,10 @@
         <v>324</v>
       </c>
       <c r="D22">
-        <v>0.02581021845404584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2.5810218454045838E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2058,10 +2076,10 @@
         <v>325</v>
       </c>
       <c r="D23">
-        <v>0.01331866439476922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1.331866439476922E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2072,10 +2090,10 @@
         <v>326</v>
       </c>
       <c r="D24">
-        <v>0.09738005492865778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>9.7380054928657783E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2086,10 +2104,10 @@
         <v>327</v>
       </c>
       <c r="D25">
-        <v>0.03513081887409551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3.5130818874095512E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2100,10 +2118,10 @@
         <v>328</v>
       </c>
       <c r="D26">
-        <v>0.01302838907662854</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1.302838907662854E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2114,10 +2132,10 @@
         <v>329</v>
       </c>
       <c r="D27">
-        <v>0.02738359412900521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.738359412900521E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2128,10 +2146,10 @@
         <v>330</v>
       </c>
       <c r="D28">
-        <v>0.03069369542532583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3.069369542532583E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2142,10 +2160,10 @@
         <v>331</v>
       </c>
       <c r="D29">
-        <v>0.01476309892813436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1.476309892813436E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2156,10 +2174,10 @@
         <v>332</v>
       </c>
       <c r="D30">
-        <v>0.1023842397926693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.10238423979266929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2170,10 +2188,10 @@
         <v>333</v>
       </c>
       <c r="D31">
-        <v>0.01140117810519666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1.140117810519666E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2184,10 +2202,10 @@
         <v>334</v>
       </c>
       <c r="D32">
-        <v>0.01330389775751233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.3303897757512329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2198,10 +2216,10 @@
         <v>335</v>
       </c>
       <c r="D33">
-        <v>0.04253814160491989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>4.2538141604919887E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2212,10 +2230,10 @@
         <v>336</v>
       </c>
       <c r="D34">
-        <v>0.02183556213332633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2.1835562133326328E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2226,10 +2244,10 @@
         <v>337</v>
       </c>
       <c r="D35">
-        <v>0.02949322569585273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.9493225695852731E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2240,10 +2258,10 @@
         <v>338</v>
       </c>
       <c r="D36">
-        <v>0.01277512247023749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.2775122470237489E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2254,10 +2272,10 @@
         <v>339</v>
       </c>
       <c r="D37">
-        <v>0.01584820759127179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.5848207591271792E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2268,10 +2286,10 @@
         <v>340</v>
       </c>
       <c r="D38">
-        <v>0.02108014348248687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>2.1080143482486869E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2282,10 +2300,10 @@
         <v>341</v>
       </c>
       <c r="D39">
-        <v>0.03386633549682146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>3.3866335496821463E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2296,10 +2314,10 @@
         <v>342</v>
       </c>
       <c r="D40">
-        <v>0.01755782352024378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.7557823520243779E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2310,10 +2328,10 @@
         <v>343</v>
       </c>
       <c r="D41">
-        <v>0.03680591609403869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>3.6805916094038688E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2324,10 +2342,10 @@
         <v>344</v>
       </c>
       <c r="D42">
-        <v>0.02427141291205645</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>2.427141291205645E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2338,10 +2356,10 @@
         <v>345</v>
       </c>
       <c r="D43">
-        <v>0.01994327402811952</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>1.9943274028119521E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2352,10 +2370,10 @@
         <v>346</v>
       </c>
       <c r="D44">
-        <v>0.0333591671307361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>3.3359167130736098E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2366,10 +2384,10 @@
         <v>347</v>
       </c>
       <c r="D45">
-        <v>0.008377152169377823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>8.3771521693778231E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2380,10 +2398,10 @@
         <v>348</v>
       </c>
       <c r="D46">
-        <v>0.05948388589360867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>5.9483885893608673E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2394,10 +2412,10 @@
         <v>349</v>
       </c>
       <c r="D47">
-        <v>0.01137555700766151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.137555700766151E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2408,10 +2426,10 @@
         <v>350</v>
       </c>
       <c r="D48">
-        <v>0.02314371676203745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>2.3143716762037449E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2422,10 +2440,10 @@
         <v>351</v>
       </c>
       <c r="D49">
-        <v>0.03147723962625889</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>3.1477239626258889E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2436,10 +2454,10 @@
         <v>352</v>
       </c>
       <c r="D50">
-        <v>0.08343795565563913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>8.3437955655639134E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2450,10 +2468,10 @@
         <v>353</v>
       </c>
       <c r="D51">
-        <v>0.1531682455208201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.15316824552082009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2464,10 +2482,10 @@
         <v>354</v>
       </c>
       <c r="D52">
-        <v>0.02061852100612262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>2.0618521006122621E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2478,10 +2496,10 @@
         <v>355</v>
       </c>
       <c r="D53">
-        <v>0.01082505792167168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1.0825057921671681E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2492,10 +2510,10 @@
         <v>356</v>
       </c>
       <c r="D54">
-        <v>0.01679358359549887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.679358359549887E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2506,10 +2524,10 @@
         <v>357</v>
       </c>
       <c r="D55">
-        <v>0.01715966518643024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.715966518643024E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2520,10 +2538,10 @@
         <v>358</v>
       </c>
       <c r="D56">
-        <v>0.01584820759127179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.5848207591271792E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2534,10 +2552,10 @@
         <v>359</v>
       </c>
       <c r="D57">
-        <v>0.02523907356031767</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>2.5239073560317671E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2548,10 +2566,10 @@
         <v>360</v>
       </c>
       <c r="D58">
-        <v>0.04534460503784232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>4.5344605037842323E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2562,10 +2580,10 @@
         <v>361</v>
       </c>
       <c r="D59">
-        <v>0.01034274623005608</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1.034274623005608E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2576,10 +2594,10 @@
         <v>362</v>
       </c>
       <c r="D60">
-        <v>0.03532240715090383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>3.5322407150903831E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2590,10 +2608,10 @@
         <v>363</v>
       </c>
       <c r="D61">
-        <v>0.02847625259462104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>2.847625259462104E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2604,10 +2622,10 @@
         <v>364</v>
       </c>
       <c r="D62">
-        <v>0.0381035469136547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>3.8103546913654703E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2618,10 +2636,10 @@
         <v>365</v>
       </c>
       <c r="D63">
-        <v>0.03786246775172625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>3.7862467751726248E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2632,10 +2650,10 @@
         <v>366</v>
       </c>
       <c r="D64">
-        <v>0.03234160419528647</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>3.2341604195286471E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2646,10 +2664,10 @@
         <v>367</v>
       </c>
       <c r="D65">
-        <v>0.0200627765790881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>2.0062776579088101E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2660,10 +2678,10 @@
         <v>368</v>
       </c>
       <c r="D66">
-        <v>0.01991627783477107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1.9916277834771071E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2674,10 +2692,10 @@
         <v>369</v>
       </c>
       <c r="D67">
-        <v>0.0699543285114998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>6.9954328511499797E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2688,10 +2706,10 @@
         <v>370</v>
       </c>
       <c r="D68">
-        <v>0.03352880060846324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3.3528800608463243E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2702,10 +2720,10 @@
         <v>371</v>
       </c>
       <c r="D69">
-        <v>0.04872594914407968</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>4.8725949144079683E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2716,10 +2734,10 @@
         <v>372</v>
       </c>
       <c r="D70">
-        <v>0.0463887912103071</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>4.6388791210307097E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2730,10 +2748,10 @@
         <v>373</v>
       </c>
       <c r="D71">
-        <v>0.1004227957495022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.10042279574950221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2744,10 +2762,10 @@
         <v>374</v>
       </c>
       <c r="D72">
-        <v>0.01378852051571052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1.378852051571052E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2758,10 +2776,10 @@
         <v>375</v>
       </c>
       <c r="D73">
-        <v>0.01164864736760878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1.164864736760878E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2775,7 +2793,7 @@
         <v>0.1289366465542619</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2786,10 +2804,10 @@
         <v>377</v>
       </c>
       <c r="D75">
-        <v>0.01493619285345725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1.493619285345725E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2800,10 +2818,10 @@
         <v>378</v>
       </c>
       <c r="D76">
-        <v>0.02629633919706544</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>2.6296339197065439E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2814,10 +2832,10 @@
         <v>379</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>1.973065769362093E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2828,10 +2846,10 @@
         <v>380</v>
       </c>
       <c r="D78">
-        <v>0.01376506311721712</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>1.3765063117217121E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2842,10 +2860,10 @@
         <v>381</v>
       </c>
       <c r="D79">
-        <v>0.01871934030498457</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.871934030498457E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2856,10 +2874,10 @@
         <v>382</v>
       </c>
       <c r="D80">
-        <v>0.02805160405608553</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>2.8051604056085529E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2870,10 +2888,10 @@
         <v>383</v>
       </c>
       <c r="D81">
-        <v>0.01277512247023749</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>1.2775122470237489E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2884,10 +2902,10 @@
         <v>384</v>
       </c>
       <c r="D82">
-        <v>0.01659143932516396</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>1.6591439325163961E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2898,10 +2916,10 @@
         <v>385</v>
       </c>
       <c r="D83">
-        <v>0.06197642900462529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>6.1976429004625293E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2912,10 +2930,10 @@
         <v>386</v>
       </c>
       <c r="D84">
-        <v>0.04280703984817959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>4.2807039848179587E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2926,10 +2944,10 @@
         <v>387</v>
       </c>
       <c r="D85">
-        <v>0.02345749517489102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>2.345749517489102E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2940,10 +2958,10 @@
         <v>388</v>
       </c>
       <c r="D86">
-        <v>0.05924430086245036</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>5.9244300862450361E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2954,10 +2972,10 @@
         <v>389</v>
       </c>
       <c r="D87">
-        <v>0.03301533245840463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>3.3015332458404628E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2968,10 +2986,10 @@
         <v>390</v>
       </c>
       <c r="D88">
-        <v>0.02345749517489102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2.345749517489102E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2982,10 +3000,10 @@
         <v>391</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1.6591439325163961E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2996,10 +3014,10 @@
         <v>392</v>
       </c>
       <c r="D90">
-        <v>0.01693234520171621</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1.6932345201716211E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3010,10 +3028,10 @@
         <v>393</v>
       </c>
       <c r="D91">
-        <v>0.06128134109992247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>6.1281341099922469E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3024,10 +3042,10 @@
         <v>394</v>
       </c>
       <c r="D92">
-        <v>0.01488871472615248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>1.4888714726152479E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3038,10 +3056,10 @@
         <v>395</v>
       </c>
       <c r="D93">
-        <v>0.01733804040188192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1.7338040401881919E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3052,10 +3070,10 @@
         <v>396</v>
       </c>
       <c r="D94">
-        <v>0.03507713682027595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>3.5077136820275953E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3066,10 +3084,10 @@
         <v>397</v>
       </c>
       <c r="D95">
-        <v>0.06881976340414667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>6.8819763404146667E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3080,10 +3098,10 @@
         <v>398</v>
       </c>
       <c r="D96">
-        <v>0.0173912273033534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1.73912273033534E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3094,10 +3112,10 @@
         <v>399</v>
       </c>
       <c r="D97">
-        <v>0.02222470130902231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>2.2224701309022311E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3108,10 +3126,10 @@
         <v>400</v>
       </c>
       <c r="D98">
-        <v>0.03230007946542409</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>3.2300079465424091E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3136,10 +3154,10 @@
         <v>402</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.9471044821063151E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3150,10 +3168,10 @@
         <v>403</v>
       </c>
       <c r="D101">
-        <v>0.01150692226750352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.150692226750352E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3164,10 +3182,10 @@
         <v>404</v>
       </c>
       <c r="D102">
-        <v>0.03822749005968956</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>3.8227490059689562E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3178,10 +3196,10 @@
         <v>405</v>
       </c>
       <c r="D103">
-        <v>0.04132103283488014</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>4.1321032834880138E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3192,10 +3210,10 @@
         <v>406</v>
       </c>
       <c r="D104">
-        <v>0.07500701578962382</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>7.5007015789623821E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3206,10 +3224,10 @@
         <v>407</v>
       </c>
       <c r="D105">
-        <v>0.08441569539289243</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>8.4415695392892426E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3220,10 +3238,10 @@
         <v>408</v>
       </c>
       <c r="D106">
-        <v>0.02091270883715579</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>2.0912708837155791E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3234,10 +3252,10 @@
         <v>409</v>
       </c>
       <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1.3509502568391511E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3248,10 +3266,10 @@
         <v>410</v>
       </c>
       <c r="D108">
-        <v>0.01379953820967858</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1.379953820967858E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3262,10 +3280,10 @@
         <v>411</v>
       </c>
       <c r="D109">
-        <v>0.01693234520171621</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1.6932345201716211E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3276,10 +3294,10 @@
         <v>412</v>
       </c>
       <c r="D110">
-        <v>0.03301533245840463</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>3.3015332458404628E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3290,10 +3308,10 @@
         <v>413</v>
       </c>
       <c r="D111">
-        <v>0.01435802452844482</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>1.435802452844482E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3304,10 +3322,10 @@
         <v>414</v>
       </c>
       <c r="D112">
-        <v>0.01586198427574612</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1.5861984275746119E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3318,10 +3336,10 @@
         <v>415</v>
       </c>
       <c r="D113">
-        <v>0.04327839808053797</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>4.3278398080537968E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3332,10 +3350,10 @@
         <v>416</v>
       </c>
       <c r="D114">
-        <v>0.03118528931696151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3.1185289316961511E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3346,10 +3364,10 @@
         <v>417</v>
       </c>
       <c r="D115">
-        <v>0.01647446351899658</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1.647446351899658E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3360,10 +3378,10 @@
         <v>418</v>
       </c>
       <c r="D116">
-        <v>0.01659143932516396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1.6591439325163961E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3374,10 +3392,10 @@
         <v>419</v>
       </c>
       <c r="D117">
-        <v>0.02429936069069947</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>2.4299360690699469E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3388,10 +3406,10 @@
         <v>420</v>
       </c>
       <c r="D118">
-        <v>0.009549565240496988</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>9.5495652404969881E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3402,10 +3420,10 @@
         <v>421</v>
       </c>
       <c r="D119">
-        <v>0.02193169733777606</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>2.1931697337776061E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3416,10 +3434,10 @@
         <v>422</v>
       </c>
       <c r="D120">
-        <v>0.01637313179127641</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1.6373131791276412E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3430,10 +3448,10 @@
         <v>423</v>
       </c>
       <c r="D121">
-        <v>0.026380696981716</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>2.6380696981715999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3444,10 +3462,10 @@
         <v>424</v>
       </c>
       <c r="D122">
-        <v>0.05547182024251767</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>5.5471820242517671E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3458,10 +3476,10 @@
         <v>425</v>
       </c>
       <c r="D123">
-        <v>0.0118022190641928</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.18022190641928E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3472,10 +3490,10 @@
         <v>426</v>
       </c>
       <c r="D124">
-        <v>0.0348747711707101</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>3.4874771170710098E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3486,10 +3504,10 @@
         <v>427</v>
       </c>
       <c r="D125">
-        <v>0.03766092518123645</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>3.7660925181236447E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3500,10 +3518,10 @@
         <v>428</v>
       </c>
       <c r="D126">
-        <v>0.01924622981717139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1.924622981717139E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3514,10 +3532,10 @@
         <v>429</v>
       </c>
       <c r="D127">
-        <v>0.0201360653875631</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>2.0136065387563101E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3528,10 +3546,10 @@
         <v>430</v>
       </c>
       <c r="D128">
-        <v>0.01463323266501497</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1.463323266501497E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3542,10 +3560,10 @@
         <v>431</v>
       </c>
       <c r="D129">
-        <v>0.02122521936763937</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>2.122521936763937E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3556,10 +3574,10 @@
         <v>432</v>
       </c>
       <c r="D130">
-        <v>0.03931435724915834</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>3.9314357249158341E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3570,10 +3588,10 @@
         <v>433</v>
       </c>
       <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.251837734451281E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3584,10 +3602,10 @@
         <v>434</v>
       </c>
       <c r="D132">
-        <v>0.06456466142518542</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>6.4564661425185424E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3598,10 +3616,10 @@
         <v>435</v>
       </c>
       <c r="D133">
-        <v>0.03287522779290523</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>3.2875227792905228E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3612,10 +3630,10 @@
         <v>436</v>
       </c>
       <c r="D134">
-        <v>0.02204098458746941</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>2.204098458746941E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3626,10 +3644,10 @@
         <v>437</v>
       </c>
       <c r="D135">
-        <v>0.02427141291205645</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>2.427141291205645E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3640,10 +3658,10 @@
         <v>438</v>
       </c>
       <c r="D136">
-        <v>0.0381035469136547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>3.8103546913654703E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3654,10 +3672,10 @@
         <v>439</v>
       </c>
       <c r="D137">
-        <v>0.01085190466069152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>1.085190466069152E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3668,10 +3686,10 @@
         <v>440</v>
       </c>
       <c r="D138">
-        <v>0.01455388472939819</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>1.4553884729398191E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3682,10 +3700,10 @@
         <v>441</v>
       </c>
       <c r="D139">
-        <v>0.02266357778217241</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>2.2663577782172411E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3696,10 +3714,10 @@
         <v>442</v>
       </c>
       <c r="D140">
-        <v>0.01011926888042898</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>1.011926888042898E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3710,10 +3728,10 @@
         <v>443</v>
       </c>
       <c r="D141">
-        <v>0.02287039180347337</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>2.2870391803473372E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3724,10 +3742,10 @@
         <v>444</v>
       </c>
       <c r="D142">
-        <v>0.01669429076775192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>1.6694290767751922E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3735,13 +3753,13 @@
         <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>1.49361928534572E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3749,13 +3767,13 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D144">
-        <v>0.04599915789122599</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>4.5999157891225988E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3763,13 +3781,13 @@
         <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D145">
-        <v>0.02897909874306808</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>2.8979098743068081E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3777,13 +3795,13 @@
         <v>298</v>
       </c>
       <c r="C146" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D146">
-        <v>0.02122521936763937</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>2.122521936763937E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3791,13 +3809,13 @@
         <v>299</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D147">
-        <v>0.01776222681238415</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1.7762226812384149E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3805,13 +3823,13 @@
         <v>300</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D148">
-        <v>0.03784310341709043</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>3.7843103417090428E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3819,13 +3837,13 @@
         <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>4.1263216881455088E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3833,13 +3851,13 @@
         <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D150">
-        <v>0.01133538854739334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1.1335388547393341E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3847,10 +3865,10 @@
         <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D151">
-        <v>0.01321504524279733</v>
+        <v>1.3215045242797331E-2</v>
       </c>
     </row>
   </sheetData>
